--- a/doc/import/TONG HOP XUAT KHO TB YT 2017.xlsx
+++ b/doc/import/TONG HOP XUAT KHO TB YT 2017.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="420" windowWidth="19815" windowHeight="6885"/>
@@ -11,7 +11,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -387,6 +387,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -404,15 +413,6 @@
     </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -731,21 +731,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="26.25">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="37" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="42"/>
-      <c r="I1" s="42"/>
-      <c r="J1" s="42"/>
-      <c r="K1" s="42"/>
-      <c r="L1" s="42"/>
-      <c r="M1" s="42"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="37"/>
+      <c r="K1" s="37"/>
+      <c r="L1" s="37"/>
+      <c r="M1" s="37"/>
     </row>
     <row r="2" spans="1:13" ht="16.5" customHeight="1">
       <c r="A2" s="2" t="s">
@@ -760,29 +760,29 @@
       <c r="D2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="43" t="s">
+      <c r="E2" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="43"/>
-      <c r="G2" s="38" t="s">
+      <c r="F2" s="38"/>
+      <c r="G2" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="38" t="s">
+      <c r="H2" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="36" t="s">
+      <c r="I2" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="39" t="s">
+      <c r="J2" s="42" t="s">
         <v>35</v>
       </c>
-      <c r="K2" s="39" t="s">
+      <c r="K2" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="L2" s="40" t="s">
+      <c r="L2" s="43" t="s">
         <v>37</v>
       </c>
-      <c r="M2" s="36" t="s">
+      <c r="M2" s="39" t="s">
         <v>38</v>
       </c>
     </row>
@@ -805,13 +805,13 @@
       <c r="F3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="38"/>
-      <c r="H3" s="38"/>
-      <c r="I3" s="37"/>
-      <c r="J3" s="38"/>
-      <c r="K3" s="38"/>
-      <c r="L3" s="41"/>
-      <c r="M3" s="37"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="41"/>
+      <c r="I3" s="40"/>
+      <c r="J3" s="41"/>
+      <c r="K3" s="41"/>
+      <c r="L3" s="44"/>
+      <c r="M3" s="40"/>
     </row>
     <row r="4" spans="1:13" ht="16.5">
       <c r="A4" s="12">
@@ -1026,7 +1026,7 @@
       <c r="M9" s="20"/>
     </row>
     <row r="10" spans="1:13" ht="17.25">
-      <c r="A10" s="44">
+      <c r="A10" s="36">
         <v>2</v>
       </c>
       <c r="B10" s="13" t="s">
@@ -1061,7 +1061,7 @@
       <c r="M10" s="20"/>
     </row>
     <row r="11" spans="1:13" ht="17.25">
-      <c r="A11" s="44">
+      <c r="A11" s="36">
         <v>2</v>
       </c>
       <c r="B11" s="22" t="s">
@@ -1096,7 +1096,7 @@
       <c r="M11" s="20"/>
     </row>
     <row r="12" spans="1:13" ht="17.25">
-      <c r="A12" s="44">
+      <c r="A12" s="36">
         <v>3</v>
       </c>
       <c r="B12" s="13" t="s">
@@ -1131,7 +1131,7 @@
       <c r="M12" s="20"/>
     </row>
     <row r="13" spans="1:13" ht="17.25">
-      <c r="A13" s="44">
+      <c r="A13" s="36">
         <v>3</v>
       </c>
       <c r="B13" s="22" t="s">
@@ -1166,7 +1166,7 @@
       <c r="M13" s="20"/>
     </row>
     <row r="14" spans="1:13" ht="17.25">
-      <c r="A14" s="44">
+      <c r="A14" s="36">
         <v>4</v>
       </c>
       <c r="B14" s="13" t="s">
@@ -1201,7 +1201,7 @@
       <c r="M14" s="20"/>
     </row>
     <row r="15" spans="1:13" ht="17.25">
-      <c r="A15" s="44">
+      <c r="A15" s="36">
         <v>4</v>
       </c>
       <c r="B15" s="22" t="s">
@@ -1236,7 +1236,7 @@
       <c r="M15" s="20"/>
     </row>
     <row r="16" spans="1:13" ht="17.25">
-      <c r="A16" s="44">
+      <c r="A16" s="36">
         <v>4</v>
       </c>
       <c r="B16" s="24" t="s">
@@ -1271,7 +1271,7 @@
       <c r="M16" s="20"/>
     </row>
     <row r="17" spans="1:13" ht="17.25">
-      <c r="A17" s="44">
+      <c r="A17" s="36">
         <v>4</v>
       </c>
       <c r="B17" s="26" t="s">
@@ -1306,7 +1306,7 @@
       <c r="M17" s="20"/>
     </row>
     <row r="18" spans="1:13" ht="17.25">
-      <c r="A18" s="44">
+      <c r="A18" s="36">
         <v>4</v>
       </c>
       <c r="B18" s="26" t="s">
@@ -1341,7 +1341,7 @@
       <c r="M18" s="20"/>
     </row>
     <row r="19" spans="1:13" ht="17.25">
-      <c r="A19" s="44">
+      <c r="A19" s="36">
         <v>4</v>
       </c>
       <c r="B19" s="27" t="s">
@@ -1378,7 +1378,7 @@
       <c r="M19" s="20"/>
     </row>
     <row r="20" spans="1:13" ht="17.25">
-      <c r="A20" s="44">
+      <c r="A20" s="36">
         <v>5</v>
       </c>
       <c r="B20" s="13" t="s">
@@ -1413,7 +1413,7 @@
       <c r="M20" s="20"/>
     </row>
     <row r="21" spans="1:13" ht="17.25">
-      <c r="A21" s="44">
+      <c r="A21" s="36">
         <v>5</v>
       </c>
       <c r="B21" s="22" t="s">
@@ -1448,7 +1448,7 @@
       <c r="M21" s="20"/>
     </row>
     <row r="22" spans="1:13" ht="17.25">
-      <c r="A22" s="44">
+      <c r="A22" s="36">
         <v>5</v>
       </c>
       <c r="B22" s="24" t="s">
@@ -1483,7 +1483,7 @@
       <c r="M22" s="20"/>
     </row>
     <row r="23" spans="1:13" ht="17.25">
-      <c r="A23" s="44">
+      <c r="A23" s="36">
         <v>5</v>
       </c>
       <c r="B23" s="26" t="s">
@@ -1518,7 +1518,7 @@
       <c r="M23" s="20"/>
     </row>
     <row r="24" spans="1:13" ht="17.25">
-      <c r="A24" s="44">
+      <c r="A24" s="36">
         <v>5</v>
       </c>
       <c r="B24" s="26" t="s">
@@ -1553,7 +1553,7 @@
       <c r="M24" s="20"/>
     </row>
     <row r="25" spans="1:13" ht="17.25">
-      <c r="A25" s="44">
+      <c r="A25" s="36">
         <v>5</v>
       </c>
       <c r="B25" s="27" t="s">
@@ -1590,7 +1590,7 @@
       <c r="M25" s="20"/>
     </row>
     <row r="26" spans="1:13" ht="17.25">
-      <c r="A26" s="44">
+      <c r="A26" s="36">
         <v>6</v>
       </c>
       <c r="B26" s="24" t="s">
@@ -1625,7 +1625,7 @@
       <c r="M26" s="20"/>
     </row>
     <row r="27" spans="1:13" ht="17.25">
-      <c r="A27" s="44">
+      <c r="A27" s="36">
         <v>6</v>
       </c>
       <c r="B27" s="26" t="s">
@@ -1660,7 +1660,7 @@
       <c r="M27" s="20"/>
     </row>
     <row r="28" spans="1:13" ht="17.25">
-      <c r="A28" s="44">
+      <c r="A28" s="36">
         <v>6</v>
       </c>
       <c r="B28" s="26" t="s">
@@ -1695,7 +1695,7 @@
       <c r="M28" s="20"/>
     </row>
     <row r="29" spans="1:13" ht="17.25">
-      <c r="A29" s="44">
+      <c r="A29" s="36">
         <v>6</v>
       </c>
       <c r="B29" s="27" t="s">
@@ -1732,7 +1732,7 @@
       <c r="M29" s="20"/>
     </row>
     <row r="30" spans="1:13" ht="17.25">
-      <c r="A30" s="44">
+      <c r="A30" s="36">
         <v>7</v>
       </c>
       <c r="B30" s="24" t="s">
@@ -1767,7 +1767,7 @@
       <c r="M30" s="20"/>
     </row>
     <row r="31" spans="1:13" ht="17.25">
-      <c r="A31" s="44">
+      <c r="A31" s="36">
         <v>7</v>
       </c>
       <c r="B31" s="26" t="s">
@@ -1802,7 +1802,7 @@
       <c r="M31" s="20"/>
     </row>
     <row r="32" spans="1:13" ht="17.25">
-      <c r="A32" s="44">
+      <c r="A32" s="36">
         <v>7</v>
       </c>
       <c r="B32" s="26" t="s">
@@ -1837,7 +1837,7 @@
       <c r="M32" s="20"/>
     </row>
     <row r="33" spans="1:13" ht="17.25">
-      <c r="A33" s="44">
+      <c r="A33" s="36">
         <v>7</v>
       </c>
       <c r="B33" s="27" t="s">
@@ -1874,7 +1874,7 @@
       <c r="M33" s="20"/>
     </row>
     <row r="34" spans="1:13" ht="17.25">
-      <c r="A34" s="44">
+      <c r="A34" s="36">
         <v>8</v>
       </c>
       <c r="B34" s="24" t="s">
@@ -1909,7 +1909,7 @@
       <c r="M34" s="20"/>
     </row>
     <row r="35" spans="1:13" ht="17.25">
-      <c r="A35" s="44">
+      <c r="A35" s="36">
         <v>8</v>
       </c>
       <c r="B35" s="26" t="s">
@@ -1944,7 +1944,7 @@
       <c r="M35" s="20"/>
     </row>
     <row r="36" spans="1:13" ht="17.25">
-      <c r="A36" s="44">
+      <c r="A36" s="36">
         <v>8</v>
       </c>
       <c r="B36" s="26" t="s">
@@ -1979,7 +1979,7 @@
       <c r="M36" s="20"/>
     </row>
     <row r="37" spans="1:13" ht="17.25">
-      <c r="A37" s="44">
+      <c r="A37" s="36">
         <v>8</v>
       </c>
       <c r="B37" s="27" t="s">
@@ -2016,7 +2016,7 @@
       <c r="M37" s="20"/>
     </row>
     <row r="38" spans="1:13" ht="17.25">
-      <c r="A38" s="44">
+      <c r="A38" s="36">
         <v>10</v>
       </c>
       <c r="B38" s="22" t="s">
@@ -2053,7 +2053,7 @@
       <c r="M38" s="20"/>
     </row>
     <row r="39" spans="1:13" ht="17.25">
-      <c r="A39" s="44">
+      <c r="A39" s="36">
         <v>10</v>
       </c>
       <c r="B39" s="22" t="s">
@@ -2088,7 +2088,7 @@
       <c r="M39" s="20"/>
     </row>
     <row r="40" spans="1:13" ht="17.25">
-      <c r="A40" s="44">
+      <c r="A40" s="36">
         <v>11</v>
       </c>
       <c r="B40" s="22" t="s">
@@ -2125,7 +2125,7 @@
       <c r="M40" s="20"/>
     </row>
     <row r="41" spans="1:13" ht="17.25">
-      <c r="A41" s="44">
+      <c r="A41" s="36">
         <v>12</v>
       </c>
       <c r="B41" s="22" t="s">
@@ -2162,7 +2162,7 @@
       <c r="M41" s="20"/>
     </row>
     <row r="42" spans="1:13" ht="17.25">
-      <c r="A42" s="44">
+      <c r="A42" s="36">
         <v>13</v>
       </c>
       <c r="B42" s="22" t="s">
@@ -2199,7 +2199,7 @@
       <c r="M42" s="20"/>
     </row>
     <row r="43" spans="1:13" ht="17.25">
-      <c r="A43" s="44">
+      <c r="A43" s="36">
         <v>14</v>
       </c>
       <c r="B43" s="22" t="s">
@@ -2236,7 +2236,7 @@
       <c r="M43" s="20"/>
     </row>
     <row r="44" spans="1:13" ht="17.25">
-      <c r="A44" s="44">
+      <c r="A44" s="36">
         <v>15</v>
       </c>
       <c r="B44" s="22" t="s">
@@ -2273,7 +2273,7 @@
       <c r="M44" s="20"/>
     </row>
     <row r="45" spans="1:13" ht="17.25">
-      <c r="A45" s="44">
+      <c r="A45" s="36">
         <v>16</v>
       </c>
       <c r="B45" s="22" t="s">
@@ -2310,7 +2310,7 @@
       <c r="M45" s="20"/>
     </row>
     <row r="46" spans="1:13" ht="17.25">
-      <c r="A46" s="44">
+      <c r="A46" s="36">
         <v>17</v>
       </c>
       <c r="B46" s="22" t="s">
@@ -2347,7 +2347,7 @@
       <c r="M46" s="20"/>
     </row>
     <row r="47" spans="1:13" ht="17.25">
-      <c r="A47" s="44">
+      <c r="A47" s="36">
         <v>18</v>
       </c>
       <c r="B47" s="22" t="s">
@@ -2384,7 +2384,7 @@
       <c r="M47" s="20"/>
     </row>
     <row r="48" spans="1:13" ht="17.25">
-      <c r="A48" s="44">
+      <c r="A48" s="36">
         <v>19</v>
       </c>
       <c r="B48" s="22" t="s">
@@ -2421,7 +2421,7 @@
       <c r="M48" s="20"/>
     </row>
     <row r="49" spans="1:13" ht="17.25">
-      <c r="A49" s="44">
+      <c r="A49" s="36">
         <v>20</v>
       </c>
       <c r="B49" s="22" t="s">
@@ -2458,7 +2458,7 @@
       <c r="M49" s="20"/>
     </row>
     <row r="50" spans="1:13" ht="17.25">
-      <c r="A50" s="44">
+      <c r="A50" s="36">
         <v>21</v>
       </c>
       <c r="B50" s="22" t="s">
@@ -2495,7 +2495,7 @@
       <c r="M50" s="20"/>
     </row>
     <row r="51" spans="1:13" ht="17.25">
-      <c r="A51" s="44">
+      <c r="A51" s="36">
         <v>22</v>
       </c>
       <c r="B51" s="22" t="s">
@@ -2532,7 +2532,7 @@
       <c r="M51" s="20"/>
     </row>
     <row r="52" spans="1:13" ht="17.25">
-      <c r="A52" s="44">
+      <c r="A52" s="36">
         <v>23</v>
       </c>
       <c r="B52" s="24" t="s">
@@ -2567,7 +2567,7 @@
       <c r="M52" s="20"/>
     </row>
     <row r="53" spans="1:13" ht="17.25">
-      <c r="A53" s="44">
+      <c r="A53" s="36">
         <v>23</v>
       </c>
       <c r="B53" s="26" t="s">
@@ -2602,7 +2602,7 @@
       <c r="M53" s="20"/>
     </row>
     <row r="54" spans="1:13" ht="17.25">
-      <c r="A54" s="44">
+      <c r="A54" s="36">
         <v>23</v>
       </c>
       <c r="B54" s="26" t="s">
@@ -2637,7 +2637,7 @@
       <c r="M54" s="20"/>
     </row>
     <row r="55" spans="1:13" ht="17.25">
-      <c r="A55" s="44">
+      <c r="A55" s="36">
         <v>23</v>
       </c>
       <c r="B55" s="26" t="s">
@@ -2672,7 +2672,7 @@
       <c r="M55" s="20"/>
     </row>
     <row r="56" spans="1:13" ht="17.25">
-      <c r="A56" s="44">
+      <c r="A56" s="36">
         <v>23</v>
       </c>
       <c r="B56" s="26" t="s">
@@ -2707,7 +2707,7 @@
       <c r="M56" s="20"/>
     </row>
     <row r="57" spans="1:13" ht="17.25">
-      <c r="A57" s="44">
+      <c r="A57" s="36">
         <v>23</v>
       </c>
       <c r="B57" s="13" t="s">
@@ -2742,7 +2742,7 @@
       <c r="M57" s="20"/>
     </row>
     <row r="58" spans="1:13" ht="17.25">
-      <c r="A58" s="44">
+      <c r="A58" s="36">
         <v>23</v>
       </c>
       <c r="B58" s="22" t="s">
